--- a/misc/boat_logs/CarolinaSkiffMaintenanceLog.xlsx
+++ b/misc/boat_logs/CarolinaSkiffMaintenanceLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\boat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\misc\boat_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">patched hole in hull (bottom center front rib), and other knicks </t>
   </si>
   <si>
-    <t>new console storage bags</t>
+    <t>trimmed off bad winch strap, installed strap protector</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
